--- a/client-strategy/Cube-Analisis.xlsx
+++ b/client-strategy/Cube-Analisis.xlsx
@@ -2,33 +2,76 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\8vo Semestre\Sistema de Info gerencial\proyecto-sistemas-informacion-gerencial\client-strategy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0331C638-79F1-423B-BC17-EAA38F0714A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B4762E-A48F-4DE4-B009-6D736AA36584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A5FBEF59-CCF0-49C9-ADC3-5BD51B534AEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="SegmentaciónDeDatos_Country">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Country1">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Country2">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Country3">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Country4">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Country5">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Country6">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Country7">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Country8">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Country9">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="43" r:id="rId2"/>
-    <pivotCache cacheId="50" r:id="rId3"/>
-    <pivotCache cacheId="201" r:id="rId4"/>
-    <pivotCache cacheId="208" r:id="rId5"/>
-    <pivotCache cacheId="215" r:id="rId6"/>
-    <pivotCache cacheId="222" r:id="rId7"/>
-    <pivotCache cacheId="229" r:id="rId8"/>
-    <pivotCache cacheId="236" r:id="rId9"/>
-    <pivotCache cacheId="243" r:id="rId10"/>
-    <pivotCache cacheId="253" r:id="rId11"/>
+    <pivotCache cacheId="420" r:id="rId2"/>
+    <pivotCache cacheId="424" r:id="rId3"/>
+    <pivotCache cacheId="428" r:id="rId4"/>
+    <pivotCache cacheId="432" r:id="rId5"/>
+    <pivotCache cacheId="436" r:id="rId6"/>
+    <pivotCache cacheId="440" r:id="rId7"/>
+    <pivotCache cacheId="444" r:id="rId8"/>
+    <pivotCache cacheId="448" r:id="rId9"/>
+    <pivotCache cacheId="452" r:id="rId10"/>
+    <pivotCache cacheId="456" r:id="rId11"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
+      <x14:pivotCaches>
+        <pivotCache cacheId="419" r:id="rId12"/>
+        <pivotCache cacheId="423" r:id="rId13"/>
+        <pivotCache cacheId="427" r:id="rId14"/>
+        <pivotCache cacheId="431" r:id="rId15"/>
+        <pivotCache cacheId="435" r:id="rId16"/>
+        <pivotCache cacheId="439" r:id="rId17"/>
+        <pivotCache cacheId="443" r:id="rId18"/>
+        <pivotCache cacheId="447" r:id="rId19"/>
+        <pivotCache cacheId="451" r:id="rId20"/>
+        <pivotCache cacheId="455" r:id="rId21"/>
+      </x14:pivotCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId22"/>
+        <x14:slicerCache r:id="rId23"/>
+        <x14:slicerCache r:id="rId24"/>
+        <x14:slicerCache r:id="rId25"/>
+        <x14:slicerCache r:id="rId26"/>
+        <x14:slicerCache r:id="rId27"/>
+        <x14:slicerCache r:id="rId28"/>
+        <x14:slicerCache r:id="rId29"/>
+        <x14:slicerCache r:id="rId30"/>
+        <x14:slicerCache r:id="rId31"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -49,6 +92,10 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{D9C8D6AE-B222-4409-A3B7-712D03D26F61}" odcFile="C:\Users\Tefy\Documents\Mis archivos de origen de datos\localhost Client-Sales-Cube2 Sales-Client-Cube2.odc" keepAlive="1" name="localhost Client-Sales-Cube2 Sales-Client-Cube2" type="5" refreshedVersion="8" background="1">
+    <dbPr connection="Provider=MSOLAP.8;Persist Security Info=True;User ID=Tefy;Initial Catalog=Client-Sales-Cube2;Data Source=localhost;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="Sales-Client-Cube2" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+  </connection>
+  <connection id="2" xr16:uid="{C5CB9750-1C6E-40C4-A5C2-0AD2F91D8FC6}" odcFile="C:\Users\Tefy\Documents\Mis archivos de origen de datos\localhost Client-Sales-Cube2 Sales-Client-Cube2.odc" keepAlive="1" name="localhost Client-Sales-Cube2 Sales-Client-Cube21" type="5" refreshedVersion="8" background="1">
     <dbPr connection="Provider=MSOLAP.8;Persist Security Info=True;User ID=Tefy;Initial Catalog=Client-Sales-Cube2;Data Source=localhost;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="Sales-Client-Cube2" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -214,14 +261,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,19 +520,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2495</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2048</c:v>
+                  <c:v>1723</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1889</c:v>
+                  <c:v>1047</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3092</c:v>
+                  <c:v>1913</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>794</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -901,19 +949,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1438</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3117</c:v>
+                  <c:v>1884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3642</c:v>
+                  <c:v>3310</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1400</c:v>
+                  <c:v>914</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>721</c:v>
+                  <c:v>544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1281,6 +1329,44 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
       <c:rotX val="30"/>
@@ -1358,6 +1444,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2F32-4EA3-ABD8-49B32313F85C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1378,6 +1469,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2F32-4EA3-ABD8-49B32313F85C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1400,10 +1496,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5113</c:v>
+                  <c:v>3353</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5205</c:v>
+                  <c:v>3367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1548,7 +1644,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1580,7 +1676,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1604,15 +1700,20 @@
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1630,12 +1731,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1645,9 +1743,181 @@
               <a:endParaRPr lang="es-BO"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-BO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-BO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-BO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
@@ -1682,13 +1952,22 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0DD7-4383-88F8-3A7012D5A17F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1697,13 +1976,22 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0DD7-4383-88F8-3A7012D5A17F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1712,14 +2000,76 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0DD7-4383-88F8-3A7012D5A17F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:dPt>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-BO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$A$17:$A$20</c:f>
@@ -1744,13 +2094,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1900</c:v>
+                  <c:v>1149</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6943</c:v>
+                  <c:v>4592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1475</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1762,9 +2112,10 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
+          <c:showCatName val="1"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
@@ -1780,37 +2131,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-BO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1856,7 +2176,6 @@
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
@@ -2095,10 +2414,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2849</c:v>
+                  <c:v>1697</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7469</c:v>
+                  <c:v>5023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2511,10 +2830,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5943</c:v>
+                  <c:v>4063</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4375</c:v>
+                  <c:v>2657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2943,22 +3262,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6355</c:v>
+                  <c:v>4313</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1497</c:v>
+                  <c:v>925</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1054</c:v>
+                  <c:v>671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>688</c:v>
+                  <c:v>487</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>511</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>213</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3426,19 +3745,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2172</c:v>
+                  <c:v>1334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2916</c:v>
+                  <c:v>1832</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3949</c:v>
+                  <c:v>2756</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>705</c:v>
+                  <c:v>483</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>576</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3801,6 +4120,101 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3878,6 +4292,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C3AB-49DE-9DF1-30A212C8F321}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3898,6 +4317,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C3AB-49DE-9DF1-30A212C8F321}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3918,6 +4342,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C3AB-49DE-9DF1-30A212C8F321}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3938,6 +4367,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-C3AB-49DE-9DF1-30A212C8F321}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3958,6 +4392,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-C3AB-49DE-9DF1-30A212C8F321}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3989,19 +4428,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1232</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1853</c:v>
+                  <c:v>1566</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1320</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2922</c:v>
+                  <c:v>2317</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2991</c:v>
+                  <c:v>2322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4316,22 +4755,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2608</c:v>
+                  <c:v>1653</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2155</c:v>
+                  <c:v>1316</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1988</c:v>
+                  <c:v>1381</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1175</c:v>
+                  <c:v>742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1463</c:v>
+                  <c:v>1025</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>929</c:v>
+                  <c:v>603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6478,7 +6917,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6489,7 +6928,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -6501,7 +6940,19 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6512,52 +6963,25 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6565,50 +6989,65 @@
       </a:solidFill>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -6618,7 +7057,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -6630,25 +7069,26 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -6656,7 +7096,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6861,7 +7301,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -6869,7 +7309,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -6913,7 +7353,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6929,7 +7369,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -10019,15 +10459,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>800622</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>59630</xdr:rowOff>
+      <xdr:colOff>807549</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>132367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>752997</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>2480</xdr:rowOff>
+      <xdr:colOff>759924</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>75218</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10054,16 +10494,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>192195</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>37447</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>823071</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>468421</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>105818</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>813955</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10090,16 +10530,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47524</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>69681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10126,16 +10566,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>27278</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>11256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>796637</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10162,16 +10602,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>704459</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>12005</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>829089</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>247259</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>40580</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361684</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>104904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10198,16 +10638,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>167013</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>96294</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>820773</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>3210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>563671</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>99425</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10234,16 +10674,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>401876</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>83245</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33553</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>89430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>798534</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>86377</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>417841</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>92560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10270,16 +10710,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>36534</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>96293</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>822346</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>111447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>433192</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>99424</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>385568</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>114577</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10306,16 +10746,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>401876</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>135437</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>820297</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>108843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>798534</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>138568</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>383518</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>102448</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10342,16 +10782,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>441020</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>70197</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>791714</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>24735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>2609</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>73329</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>353303</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>27867</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10376,56 +10816,844 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>794905</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="24" name="Country">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F13E864-7287-286A-9711-9C8A36EC4B7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Country"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4324351" y="215612"/>
+              <a:ext cx="1842654" cy="2154382"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-BO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>611333</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>777587</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="25" name="Country 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B61EBA5-F0BE-03C9-5CDB-B50B9117DC68}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Country 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4307033" y="2714626"/>
+              <a:ext cx="1842654" cy="2206336"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-BO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>663287</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>829541</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="26" name="Country 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21EB3DD8-AD5D-6CB4-3A88-F4DC21BA74C6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Country 2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4358987" y="5229225"/>
+              <a:ext cx="1842654" cy="2190750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-BO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>611332</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>12121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>777586</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>138544</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="27" name="Country 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D66B57-23AB-42EF-FC11-90912E9DF4E2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Country 3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4307032" y="8336971"/>
+              <a:ext cx="1842654" cy="2117148"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-BO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>611332</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>116899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>777586</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="28" name="Country 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5898E336-DECE-F7AF-DB12-AFBBC62BD7AE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Country 4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4307032" y="11156374"/>
+              <a:ext cx="1842654" cy="2054801"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-BO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>594014</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>760268</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="29" name="Country 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D90FD8E8-8FBF-EFB9-89B4-8939C560E323}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Country 5"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4289714" y="14135099"/>
+              <a:ext cx="1842654" cy="2058266"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-BO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>663285</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>829539</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>69274</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="30" name="Country 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E411B41-6AD1-4C90-2406-928E085E1828}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Country 6"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4358985" y="16925926"/>
+              <a:ext cx="1842654" cy="2145723"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-BO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>611332</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>107372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>777586</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="31" name="Country 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDD1CA9A-F71C-0C1C-5D0B-7F6D0A17B5CC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Country 7"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4307032" y="20195597"/>
+              <a:ext cx="1842654" cy="2064327"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-BO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>594014</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>83994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>760268</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>69274</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="32" name="Country 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97407271-B987-9E93-1676-A415D319C027}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Country 8"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4289714" y="22886844"/>
+              <a:ext cx="1842654" cy="2156980"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-BO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>594015</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>65810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>760269</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>103910</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="33" name="Country 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8D5623-B47F-3048-BFB1-79916F2E4D9F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Country 9"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4289715" y="25945235"/>
+              <a:ext cx="1842654" cy="2209800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-BO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44913.704665972225" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{462505EC-4180-4A94-9554-069DCFB44393}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44914.482275462964" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{2BC3A8A3-8892-45EF-A974-F9F63A0E45E9}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="2">
+  <cacheFields count="3">
     <cacheField name="[Measures].[Quantity]" caption="Quantity" numFmtId="0" hierarchy="26" level="32767"/>
-    <cacheField name="[Dim_Customer].[Education].[Education]" caption="Education" numFmtId="0" hierarchy="2" level="1">
+    <cacheField name="[Dim_Customer].[Yearly Income].[Yearly Income]" caption="Yearly Income" numFmtId="0" hierarchy="10" level="1">
       <sharedItems count="5">
-        <s v="[Dim_Customer].[Education].&amp;[Bachelors]" c="Bachelors"/>
-        <s v="[Dim_Customer].[Education].&amp;[Graduate Degree]" c="Graduate Degree"/>
-        <s v="[Dim_Customer].[Education].&amp;[High School]" c="High School"/>
-        <s v="[Dim_Customer].[Education].&amp;[Partial College]" c="Partial College"/>
-        <s v="[Dim_Customer].[Education].&amp;[Partial High School]" c="Partial High School"/>
+        <s v="[Dim_Customer].[Yearly Income].&amp;[1.25E4]" c="12500"/>
+        <s v="[Dim_Customer].[Yearly Income].&amp;[3.75E4]" c="37500"/>
+        <s v="[Dim_Customer].[Yearly Income].&amp;[6.25E4]" c="62500"/>
+        <s v="[Dim_Customer].[Yearly Income].&amp;[8.75E4]" c="87500"/>
+        <s v="[Dim_Customer].[Yearly Income].&amp;[1.E5]" c="100000"/>
       </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim_Location].[Country].[Country]" caption="Country" numFmtId="0" hierarchy="12" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
   </cacheFields>
   <cacheHierarchies count="28">
     <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0">
+    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
         <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="0"/>
@@ -10459,18 +11687,18 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44913.717273148148" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{2BC3A8A3-8892-45EF-A974-F9F63A0E45E9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44914.482328472222" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{26EFD8A5-A4A7-4AE1-B540-8A18B89CDB13}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="2">
+  <cacheFields count="3">
     <cacheField name="[Measures].[Quantity]" caption="Quantity" numFmtId="0" hierarchy="26" level="32767"/>
-    <cacheField name="[Dim_Customer].[Yearly Income].[Yearly Income]" caption="Yearly Income" numFmtId="0" hierarchy="10" level="1">
-      <sharedItems count="5">
-        <s v="[Dim_Customer].[Yearly Income].&amp;[1.25E4]" c="12500"/>
-        <s v="[Dim_Customer].[Yearly Income].&amp;[3.75E4]" c="37500"/>
-        <s v="[Dim_Customer].[Yearly Income].&amp;[6.25E4]" c="62500"/>
-        <s v="[Dim_Customer].[Yearly Income].&amp;[8.75E4]" c="87500"/>
-        <s v="[Dim_Customer].[Yearly Income].&amp;[1.E5]" c="100000"/>
+    <cacheField name="[Dim_Customer].[Home Owner Flag].[Home Owner Flag]" caption="Home Owner Flag" numFmtId="0" hierarchy="4" level="1">
+      <sharedItems count="2">
+        <s v="[Dim_Customer].[Home Owner Flag].&amp;[0]" c="0"/>
+        <s v="[Dim_Customer].[Home Owner Flag].&amp;[1]" c="1"/>
       </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim_Location].[Country].[Country]" caption="Country" numFmtId="0" hierarchy="12" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
   </cacheFields>
   <cacheHierarchies count="28">
@@ -10478,33 +11706,38 @@
     <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0">
+    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
+        <fieldUsage x="2"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="0"/>
@@ -10537,28 +11770,21 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44913.705814583336" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{379DAD6A-D989-42CA-A8F4-8427C6A55CDE}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="2">
-    <cacheField name="[Measures].[Quantity]" caption="Quantity" numFmtId="0" hierarchy="26" level="32767"/>
-    <cacheField name="[Dim_Customer].[Genre].[Genre]" caption="Genre" numFmtId="0" hierarchy="3" level="1">
-      <sharedItems count="2">
-        <s v="[Dim_Customer].[Genre].&amp;[F]" c="F"/>
-        <s v="[Dim_Customer].[Genre].&amp;[M]" c="M"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
+<file path=xl/pivotCache/pivotCacheDefinition11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44914.482274074071" backgroundQuery="1" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{ADBCDEFE-C650-454F-898B-C948B8ECA434}">
+  <cacheSource type="external" connectionId="1">
+    <extLst>
+      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
+        <x14:sourceConnection name="localhost Client-Sales-Cube2 Sales-Client-Cube2"/>
+      </ext>
+    </extLst>
+  </cacheSource>
+  <cacheFields count="0"/>
   <cacheHierarchies count="28">
-    <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
@@ -10567,7 +11793,7 @@
     <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
@@ -10581,6 +11807,466 @@
     <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Price]" caption="Total Price" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition slicerData="1" pivotCacheId="671916395" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44914.482277314812" backgroundQuery="1" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{8AB6FEB8-5C6F-4C41-B659-3F55B5E6BD6D}">
+  <cacheSource type="external" connectionId="1">
+    <extLst>
+      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
+        <x14:sourceConnection name="localhost Client-Sales-Cube2 Sales-Client-Cube2"/>
+      </ext>
+    </extLst>
+  </cacheSource>
+  <cacheFields count="0"/>
+  <cacheHierarchies count="28">
+    <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Price]" caption="Total Price" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition slicerData="1" pivotCacheId="1146292395" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44914.482283912039" backgroundQuery="1" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{3F9D753B-D150-431A-9E85-A1B14748176D}">
+  <cacheSource type="external" connectionId="1">
+    <extLst>
+      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
+        <x14:sourceConnection name="localhost Client-Sales-Cube2 Sales-Client-Cube2"/>
+      </ext>
+    </extLst>
+  </cacheSource>
+  <cacheFields count="0"/>
+  <cacheHierarchies count="28">
+    <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Price]" caption="Total Price" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition slicerData="1" pivotCacheId="1868828732" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44914.482290856482" backgroundQuery="1" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{188A8F66-7F5C-4B19-8ED2-A54E473FC2CF}">
+  <cacheSource type="external" connectionId="1">
+    <extLst>
+      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
+        <x14:sourceConnection name="localhost Client-Sales-Cube2 Sales-Client-Cube2"/>
+      </ext>
+    </extLst>
+  </cacheSource>
+  <cacheFields count="0"/>
+  <cacheHierarchies count="28">
+    <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Price]" caption="Total Price" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition slicerData="1" pivotCacheId="918552306" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44914.482297569448" backgroundQuery="1" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1048323E-0D49-4986-85EF-4FEDA3C10B02}">
+  <cacheSource type="external" connectionId="1">
+    <extLst>
+      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
+        <x14:sourceConnection name="localhost Client-Sales-Cube2 Sales-Client-Cube2"/>
+      </ext>
+    </extLst>
+  </cacheSource>
+  <cacheFields count="0"/>
+  <cacheHierarchies count="28">
+    <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Price]" caption="Total Price" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition slicerData="1" pivotCacheId="1418512450" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44914.482304282406" backgroundQuery="1" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{17C057F0-DEB0-4D99-9FB8-8F2DB4B5446B}">
+  <cacheSource type="external" connectionId="1">
+    <extLst>
+      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
+        <x14:sourceConnection name="localhost Client-Sales-Cube2 Sales-Client-Cube2"/>
+      </ext>
+    </extLst>
+  </cacheSource>
+  <cacheFields count="0"/>
+  <cacheHierarchies count="28">
+    <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Price]" caption="Total Price" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition slicerData="1" pivotCacheId="1387085020" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44914.482311574073" backgroundQuery="1" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D0037147-5065-42B7-A32C-E2967C5AD5F3}">
+  <cacheSource type="external" connectionId="1">
+    <extLst>
+      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
+        <x14:sourceConnection name="localhost Client-Sales-Cube2 Sales-Client-Cube2"/>
+      </ext>
+    </extLst>
+  </cacheSource>
+  <cacheFields count="0"/>
+  <cacheHierarchies count="28">
+    <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Price]" caption="Total Price" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition slicerData="1" pivotCacheId="812453292" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44914.48231608796" backgroundQuery="1" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{717C5C65-A6FB-481D-9F58-EBDBA9878115}">
+  <cacheSource type="external" connectionId="1">
+    <extLst>
+      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
+        <x14:sourceConnection name="localhost Client-Sales-Cube2 Sales-Client-Cube2"/>
+      </ext>
+    </extLst>
+  </cacheSource>
+  <cacheFields count="0"/>
+  <cacheHierarchies count="28">
+    <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Price]" caption="Total Price" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition slicerData="1" pivotCacheId="318723284" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44914.482323958335" backgroundQuery="1" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D5A3D577-133C-4302-A9A8-6A5568F32BC7}">
+  <cacheSource type="external" connectionId="1">
+    <extLst>
+      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
+        <x14:sourceConnection name="localhost Client-Sales-Cube2 Sales-Client-Cube2"/>
+      </ext>
+    </extLst>
+  </cacheSource>
+  <cacheFields count="0"/>
+  <cacheHierarchies count="28">
+    <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Price]" caption="Total Price" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition slicerData="1" pivotCacheId="757080515" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44914.482282060184" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{B7E1CB94-EFEA-482C-AD58-D823DDDABA3B}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Measures].[Quantity]" caption="Quantity" numFmtId="0" hierarchy="26" level="32767"/>
+    <cacheField name="[Dim_Customer].[Total Children].[Total Children]" caption="Total Children" numFmtId="0" hierarchy="9" level="1">
+      <sharedItems count="6">
+        <s v="[Dim_Customer].[Total Children].&amp;[0]" c="0"/>
+        <s v="[Dim_Customer].[Total Children].&amp;[1]" c="1"/>
+        <s v="[Dim_Customer].[Total Children].&amp;[2]" c="2"/>
+        <s v="[Dim_Customer].[Total Children].&amp;[3]" c="3"/>
+        <s v="[Dim_Customer].[Total Children].&amp;[4]" c="4"/>
+        <s v="[Dim_Customer].[Total Children].&amp;[5]" c="5"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim_Location].[Country].[Country]" caption="Country" numFmtId="0" hierarchy="12" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="28">
+    <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="0"/>
@@ -10613,10 +12299,576 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition20.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44914.482326273152" backgroundQuery="1" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{C28964AF-A50C-4B4F-9BCC-EC943B290AF5}">
+  <cacheSource type="external" connectionId="1">
+    <extLst>
+      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
+        <x14:sourceConnection name="localhost Client-Sales-Cube2 Sales-Client-Cube2"/>
+      </ext>
+    </extLst>
+  </cacheSource>
+  <cacheFields count="0"/>
+  <cacheHierarchies count="28">
+    <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Price]" caption="Total Price" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition slicerData="1" pivotCacheId="1353564135" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44913.714904166663" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1E03D19C-5C6A-4032-B8B3-D166513D0622}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44914.482289120373" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{41E04C57-337A-40D2-A229-6B41D93DE1BD}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
+    <cacheField name="[Measures].[Quantity]" caption="Quantity" numFmtId="0" hierarchy="26" level="32767"/>
+    <cacheField name="[Dim_Customer].[Occupation].[Occupation]" caption="Occupation" numFmtId="0" hierarchy="8" level="1">
+      <sharedItems count="5">
+        <s v="[Dim_Customer].[Occupation].&amp;[Clerical]" c="Clerical"/>
+        <s v="[Dim_Customer].[Occupation].&amp;[Management]" c="Management"/>
+        <s v="[Dim_Customer].[Occupation].&amp;[Manual]" c="Manual"/>
+        <s v="[Dim_Customer].[Occupation].&amp;[Professional]" c="Professional"/>
+        <s v="[Dim_Customer].[Occupation].&amp;[Skilled Manual]" c="Skilled Manual"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim_Location].[Country].[Country]" caption="Country" numFmtId="0" hierarchy="12" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="28">
+    <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Price]" caption="Total Price" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="5">
+    <dimension name="Dim_Customer" uniqueName="[Dim_Customer]" caption="Dim_Customer"/>
+    <dimension name="Dim_Location" uniqueName="[Dim_Location]" caption="Dim_Location"/>
+    <dimension name="Dim_Product" uniqueName="[Dim_Product]" caption="Dim_Product"/>
+    <dimension name="Dim_Time" uniqueName="[Dim_Time]" caption="Dim_Time"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Fact Sales" caption="Fact Sales"/>
+  </measureGroups>
+  <maps count="4">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44914.482295833332" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{95116A54-D97C-4CC5-9CFB-9351FA98462C}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Measures].[Quantity]" caption="Quantity" numFmtId="0" hierarchy="26" level="32767"/>
+    <cacheField name="[Dim_Customer].[Numbers Cars Owned].[Numbers Cars Owned]" caption="Numbers Cars Owned" numFmtId="0" hierarchy="7" level="1">
+      <sharedItems count="5">
+        <s v="[Dim_Customer].[Numbers Cars Owned].&amp;[0]" c="0"/>
+        <s v="[Dim_Customer].[Numbers Cars Owned].&amp;[1]" c="1"/>
+        <s v="[Dim_Customer].[Numbers Cars Owned].&amp;[2]" c="2"/>
+        <s v="[Dim_Customer].[Numbers Cars Owned].&amp;[3]" c="3"/>
+        <s v="[Dim_Customer].[Numbers Cars Owned].&amp;[4]" c="4"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim_Location].[Country].[Country]" caption="Country" numFmtId="0" hierarchy="12" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="28">
+    <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Price]" caption="Total Price" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="5">
+    <dimension name="Dim_Customer" uniqueName="[Dim_Customer]" caption="Dim_Customer"/>
+    <dimension name="Dim_Location" uniqueName="[Dim_Location]" caption="Dim_Location"/>
+    <dimension name="Dim_Product" uniqueName="[Dim_Product]" caption="Dim_Product"/>
+    <dimension name="Dim_Time" uniqueName="[Dim_Time]" caption="Dim_Time"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Fact Sales" caption="Fact Sales"/>
+  </measureGroups>
+  <maps count="4">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44914.482302546297" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{2A010638-8A66-4715-B26F-C9AB45B7F6C5}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Measures].[Quantity]" caption="Quantity" numFmtId="0" hierarchy="26" level="32767"/>
+    <cacheField name="[Dim_Customer].[Number Children At Home].[Number Children At Home]" caption="Number Children At Home" numFmtId="0" hierarchy="6" level="1">
+      <sharedItems count="6">
+        <s v="[Dim_Customer].[Number Children At Home].&amp;[0]" c="0"/>
+        <s v="[Dim_Customer].[Number Children At Home].&amp;[1]" c="1"/>
+        <s v="[Dim_Customer].[Number Children At Home].&amp;[2]" c="2"/>
+        <s v="[Dim_Customer].[Number Children At Home].&amp;[3]" c="3"/>
+        <s v="[Dim_Customer].[Number Children At Home].&amp;[4]" c="4"/>
+        <s v="[Dim_Customer].[Number Children At Home].&amp;[5]" c="5"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim_Location].[Country].[Country]" caption="Country" numFmtId="0" hierarchy="12" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="28">
+    <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Price]" caption="Total Price" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="5">
+    <dimension name="Dim_Customer" uniqueName="[Dim_Customer]" caption="Dim_Customer"/>
+    <dimension name="Dim_Location" uniqueName="[Dim_Location]" caption="Dim_Location"/>
+    <dimension name="Dim_Product" uniqueName="[Dim_Product]" caption="Dim_Product"/>
+    <dimension name="Dim_Time" uniqueName="[Dim_Time]" caption="Dim_Time"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Fact Sales" caption="Fact Sales"/>
+  </measureGroups>
+  <maps count="4">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44914.482309722225" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{AF30580F-0C0E-4FDA-8746-FC0EF457AB35}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Measures].[Quantity]" caption="Quantity" numFmtId="0" hierarchy="26" level="32767"/>
+    <cacheField name="[Dim_Customer].[Marital Status].[Marital Status]" caption="Marital Status" numFmtId="0" hierarchy="5" level="1">
+      <sharedItems count="2">
+        <s v="[Dim_Customer].[Marital Status].&amp;[M]" c="M"/>
+        <s v="[Dim_Customer].[Marital Status].&amp;[S]" c="S"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim_Location].[Country].[Country]" caption="Country" numFmtId="0" hierarchy="12" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="28">
+    <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Price]" caption="Total Price" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="5">
+    <dimension name="Dim_Customer" uniqueName="[Dim_Customer]" caption="Dim_Customer"/>
+    <dimension name="Dim_Location" uniqueName="[Dim_Location]" caption="Dim_Location"/>
+    <dimension name="Dim_Product" uniqueName="[Dim_Product]" caption="Dim_Product"/>
+    <dimension name="Dim_Time" uniqueName="[Dim_Time]" caption="Dim_Time"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Fact Sales" caption="Fact Sales"/>
+  </measureGroups>
+  <maps count="4">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44914.48231446759" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{462505EC-4180-4A94-9554-069DCFB44393}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Measures].[Quantity]" caption="Quantity" numFmtId="0" hierarchy="26" level="32767"/>
+    <cacheField name="[Dim_Customer].[Education].[Education]" caption="Education" numFmtId="0" hierarchy="2" level="1">
+      <sharedItems count="5">
+        <s v="[Dim_Customer].[Education].&amp;[Bachelors]" c="Bachelors"/>
+        <s v="[Dim_Customer].[Education].&amp;[Graduate Degree]" c="Graduate Degree"/>
+        <s v="[Dim_Customer].[Education].&amp;[High School]" c="High School"/>
+        <s v="[Dim_Customer].[Education].&amp;[Partial College]" c="Partial College"/>
+        <s v="[Dim_Customer].[Education].&amp;[Partial High School]" c="Partial High School"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim_Location].[Country].[Country]" caption="Country" numFmtId="0" hierarchy="12" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="28">
+    <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Price]" caption="Total Price" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="5">
+    <dimension name="Dim_Customer" uniqueName="[Dim_Customer]" caption="Dim_Customer"/>
+    <dimension name="Dim_Location" uniqueName="[Dim_Location]" caption="Dim_Location"/>
+    <dimension name="Dim_Product" uniqueName="[Dim_Product]" caption="Dim_Product"/>
+    <dimension name="Dim_Time" uniqueName="[Dim_Time]" caption="Dim_Time"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Fact Sales" caption="Fact Sales"/>
+  </measureGroups>
+  <maps count="4">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44914.482321180556" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{379DAD6A-D989-42CA-A8F4-8427C6A55CDE}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Measures].[Quantity]" caption="Quantity" numFmtId="0" hierarchy="26" level="32767"/>
+    <cacheField name="[Dim_Customer].[Genre].[Genre]" caption="Genre" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="2">
+        <s v="[Dim_Customer].[Genre].&amp;[F]" c="F"/>
+        <s v="[Dim_Customer].[Genre].&amp;[M]" c="M"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim_Location].[Country].[Country]" caption="Country" numFmtId="0" hierarchy="12" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="28">
+    <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Price]" caption="Total Price" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="5">
+    <dimension name="Dim_Customer" uniqueName="[Dim_Customer]" caption="Dim_Customer"/>
+    <dimension name="Dim_Location" uniqueName="[Dim_Location]" caption="Dim_Location"/>
+    <dimension name="Dim_Product" uniqueName="[Dim_Product]" caption="Dim_Product"/>
+    <dimension name="Dim_Time" uniqueName="[Dim_Time]" caption="Dim_Time"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Fact Sales" caption="Fact Sales"/>
+  </measureGroups>
+  <maps count="4">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44914.482325115743" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{1E03D19C-5C6A-4032-B8B3-D166513D0622}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="4">
     <cacheField name="[Measures].[Quantity]" caption="Quantity" numFmtId="0" hierarchy="28" level="32767"/>
     <cacheField name="[Dim_Customer].[Age].[Age]" caption="Age" numFmtId="0" level="2">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
@@ -10627,6 +12879,9 @@
         <s v="[Dim_Customer].[Age].[Age1].[GROUPMEMBER.[AgeXl_Grp_1]].[Dim_Customer]].[Age]].[All]]]" c="Agrupar1"/>
         <s v="[Dim_Customer].[Age].[Age1].[GROUPMEMBER.[AgeXl_Grp_2]].[Dim_Customer]].[Age]].[All]]]" c="Agrupar2"/>
       </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim_Location].[Country].[Country]" caption="Country" numFmtId="0" hierarchy="12" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
   </cacheFields>
   <cacheHierarchies count="30">
@@ -10698,7 +12953,12 @@
     <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalancedGroup="0"/>
     <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalancedGroup="0"/>
     <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="2" unbalanced="0" unbalancedGroup="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalancedGroup="0"/>
     <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalancedGroup="0"/>
     <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalancedGroup="0"/>
@@ -10746,509 +13006,28 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44913.715416087965" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{26EFD8A5-A4A7-4AE1-B540-8A18B89CDB13}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="2">
-    <cacheField name="[Measures].[Quantity]" caption="Quantity" numFmtId="0" hierarchy="26" level="32767"/>
-    <cacheField name="[Dim_Customer].[Home Owner Flag].[Home Owner Flag]" caption="Home Owner Flag" numFmtId="0" hierarchy="4" level="1">
-      <sharedItems count="2">
-        <s v="[Dim_Customer].[Home Owner Flag].&amp;[0]" c="0"/>
-        <s v="[Dim_Customer].[Home Owner Flag].&amp;[1]" c="1"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="28">
-    <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Total Price]" caption="Total Price" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="5">
-    <dimension name="Dim_Customer" uniqueName="[Dim_Customer]" caption="Dim_Customer"/>
-    <dimension name="Dim_Location" uniqueName="[Dim_Location]" caption="Dim_Location"/>
-    <dimension name="Dim_Product" uniqueName="[Dim_Product]" caption="Dim_Product"/>
-    <dimension name="Dim_Time" uniqueName="[Dim_Time]" caption="Dim_Time"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="Fact Sales" caption="Fact Sales"/>
-  </measureGroups>
-  <maps count="4">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44913.715865509257" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{AF30580F-0C0E-4FDA-8746-FC0EF457AB35}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="2">
-    <cacheField name="[Measures].[Quantity]" caption="Quantity" numFmtId="0" hierarchy="26" level="32767"/>
-    <cacheField name="[Dim_Customer].[Marital Status].[Marital Status]" caption="Marital Status" numFmtId="0" hierarchy="5" level="1">
-      <sharedItems count="2">
-        <s v="[Dim_Customer].[Marital Status].&amp;[M]" c="M"/>
-        <s v="[Dim_Customer].[Marital Status].&amp;[S]" c="S"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="28">
-    <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Total Price]" caption="Total Price" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="5">
-    <dimension name="Dim_Customer" uniqueName="[Dim_Customer]" caption="Dim_Customer"/>
-    <dimension name="Dim_Location" uniqueName="[Dim_Location]" caption="Dim_Location"/>
-    <dimension name="Dim_Product" uniqueName="[Dim_Product]" caption="Dim_Product"/>
-    <dimension name="Dim_Time" uniqueName="[Dim_Time]" caption="Dim_Time"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="Fact Sales" caption="Fact Sales"/>
-  </measureGroups>
-  <maps count="4">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44913.716144791666" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{2A010638-8A66-4715-B26F-C9AB45B7F6C5}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="2">
-    <cacheField name="[Measures].[Quantity]" caption="Quantity" numFmtId="0" hierarchy="26" level="32767"/>
-    <cacheField name="[Dim_Customer].[Number Children At Home].[Number Children At Home]" caption="Number Children At Home" numFmtId="0" hierarchy="6" level="1">
-      <sharedItems count="6">
-        <s v="[Dim_Customer].[Number Children At Home].&amp;[0]" c="0"/>
-        <s v="[Dim_Customer].[Number Children At Home].&amp;[1]" c="1"/>
-        <s v="[Dim_Customer].[Number Children At Home].&amp;[2]" c="2"/>
-        <s v="[Dim_Customer].[Number Children At Home].&amp;[3]" c="3"/>
-        <s v="[Dim_Customer].[Number Children At Home].&amp;[4]" c="4"/>
-        <s v="[Dim_Customer].[Number Children At Home].&amp;[5]" c="5"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="28">
-    <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Total Price]" caption="Total Price" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="5">
-    <dimension name="Dim_Customer" uniqueName="[Dim_Customer]" caption="Dim_Customer"/>
-    <dimension name="Dim_Location" uniqueName="[Dim_Location]" caption="Dim_Location"/>
-    <dimension name="Dim_Product" uniqueName="[Dim_Product]" caption="Dim_Product"/>
-    <dimension name="Dim_Time" uniqueName="[Dim_Time]" caption="Dim_Time"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="Fact Sales" caption="Fact Sales"/>
-  </measureGroups>
-  <maps count="4">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44913.716570370372" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{95116A54-D97C-4CC5-9CFB-9351FA98462C}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="2">
-    <cacheField name="[Measures].[Quantity]" caption="Quantity" numFmtId="0" hierarchy="26" level="32767"/>
-    <cacheField name="[Dim_Customer].[Numbers Cars Owned].[Numbers Cars Owned]" caption="Numbers Cars Owned" numFmtId="0" hierarchy="7" level="1">
-      <sharedItems count="5">
-        <s v="[Dim_Customer].[Numbers Cars Owned].&amp;[0]" c="0"/>
-        <s v="[Dim_Customer].[Numbers Cars Owned].&amp;[1]" c="1"/>
-        <s v="[Dim_Customer].[Numbers Cars Owned].&amp;[2]" c="2"/>
-        <s v="[Dim_Customer].[Numbers Cars Owned].&amp;[3]" c="3"/>
-        <s v="[Dim_Customer].[Numbers Cars Owned].&amp;[4]" c="4"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="28">
-    <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Total Price]" caption="Total Price" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="5">
-    <dimension name="Dim_Customer" uniqueName="[Dim_Customer]" caption="Dim_Customer"/>
-    <dimension name="Dim_Location" uniqueName="[Dim_Location]" caption="Dim_Location"/>
-    <dimension name="Dim_Product" uniqueName="[Dim_Product]" caption="Dim_Product"/>
-    <dimension name="Dim_Time" uniqueName="[Dim_Time]" caption="Dim_Time"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="Fact Sales" caption="Fact Sales"/>
-  </measureGroups>
-  <maps count="4">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44913.71682361111" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{41E04C57-337A-40D2-A229-6B41D93DE1BD}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="2">
-    <cacheField name="[Measures].[Quantity]" caption="Quantity" numFmtId="0" hierarchy="26" level="32767"/>
-    <cacheField name="[Dim_Customer].[Occupation].[Occupation]" caption="Occupation" numFmtId="0" hierarchy="8" level="1">
-      <sharedItems count="5">
-        <s v="[Dim_Customer].[Occupation].&amp;[Clerical]" c="Clerical"/>
-        <s v="[Dim_Customer].[Occupation].&amp;[Management]" c="Management"/>
-        <s v="[Dim_Customer].[Occupation].&amp;[Manual]" c="Manual"/>
-        <s v="[Dim_Customer].[Occupation].&amp;[Professional]" c="Professional"/>
-        <s v="[Dim_Customer].[Occupation].&amp;[Skilled Manual]" c="Skilled Manual"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="28">
-    <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Total Price]" caption="Total Price" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="5">
-    <dimension name="Dim_Customer" uniqueName="[Dim_Customer]" caption="Dim_Customer"/>
-    <dimension name="Dim_Location" uniqueName="[Dim_Location]" caption="Dim_Location"/>
-    <dimension name="Dim_Product" uniqueName="[Dim_Product]" caption="Dim_Product"/>
-    <dimension name="Dim_Time" uniqueName="[Dim_Time]" caption="Dim_Time"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="Fact Sales" caption="Fact Sales"/>
-  </measureGroups>
-  <maps count="4">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Tefy" refreshedDate="44913.717014351852" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{B7E1CB94-EFEA-482C-AD58-D823DDDABA3B}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="2">
-    <cacheField name="[Measures].[Quantity]" caption="Quantity" numFmtId="0" hierarchy="26" level="32767"/>
-    <cacheField name="[Dim_Customer].[Total Children].[Total Children]" caption="Total Children" numFmtId="0" hierarchy="9" level="1">
-      <sharedItems count="6">
-        <s v="[Dim_Customer].[Total Children].&amp;[0]" c="0"/>
-        <s v="[Dim_Customer].[Total Children].&amp;[1]" c="1"/>
-        <s v="[Dim_Customer].[Total Children].&amp;[2]" c="2"/>
-        <s v="[Dim_Customer].[Total Children].&amp;[3]" c="3"/>
-        <s v="[Dim_Customer].[Total Children].&amp;[4]" c="4"/>
-        <s v="[Dim_Customer].[Total Children].&amp;[5]" c="5"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="28">
-    <cacheHierarchy uniqueName="[Dim_Customer].[Age]" caption="Age" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Age].[All]" allUniqueName="[Dim_Customer].[Age].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Customer].[Customer Id].[All]" allUniqueName="[Dim_Customer].[Customer Id].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Education]" caption="Education" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Education].[All]" allUniqueName="[Dim_Customer].[Education].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Genre]" caption="Genre" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Genre].[All]" allUniqueName="[Dim_Customer].[Genre].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Home Owner Flag]" caption="Home Owner Flag" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Home Owner Flag].[All]" allUniqueName="[Dim_Customer].[Home Owner Flag].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Marital Status]" caption="Marital Status" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Marital Status].[All]" allUniqueName="[Dim_Customer].[Marital Status].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Number Children At Home]" caption="Number Children At Home" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Number Children At Home].[All]" allUniqueName="[Dim_Customer].[Number Children At Home].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Numbers Cars Owned]" caption="Numbers Cars Owned" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" allUniqueName="[Dim_Customer].[Numbers Cars Owned].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Occupation]" caption="Occupation" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Occupation].[All]" allUniqueName="[Dim_Customer].[Occupation].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Total Children]" caption="Total Children" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Total Children].[All]" allUniqueName="[Dim_Customer].[Total Children].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Dim_Customer].[Yearly Income]" caption="Yearly Income" attribute="1" defaultMemberUniqueName="[Dim_Customer].[Yearly Income].[All]" allUniqueName="[Dim_Customer].[Yearly Income].[All]" dimensionUniqueName="[Dim_Customer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Dim_Location].[City].[All]" allUniqueName="[Dim_Location].[City].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Dim_Location].[Country].[All]" allUniqueName="[Dim_Location].[Country].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Location Id]" caption="Location Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Location].[Location Id].[All]" allUniqueName="[Dim_Location].[Location Id].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Location].[Province]" caption="Province" attribute="1" defaultMemberUniqueName="[Dim_Location].[Province].[All]" allUniqueName="[Dim_Location].[Province].[All]" dimensionUniqueName="[Dim_Location]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Category].[All]" allUniqueName="[Dim_Product].[Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Model]" caption="Model" attribute="1" defaultMemberUniqueName="[Dim_Product].[Model].[All]" allUniqueName="[Dim_Product].[Model].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[Dim_Product].[Name].[All]" allUniqueName="[Dim_Product].[Name].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Product].[Product Id].[All]" allUniqueName="[Dim_Product].[Product Id].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Product].[Sub Category]" caption="Sub Category" attribute="1" defaultMemberUniqueName="[Dim_Product].[Sub Category].[All]" allUniqueName="[Dim_Product].[Sub Category].[All]" dimensionUniqueName="[Dim_Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Dim_Time].[Day].[All]" allUniqueName="[Dim_Time].[Day].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Dim_Time].[Month].[All]" allUniqueName="[Dim_Time].[Month].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Quarter]" caption="Quarter" attribute="1" defaultMemberUniqueName="[Dim_Time].[Quarter].[All]" allUniqueName="[Dim_Time].[Quarter].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Semester]" caption="Semester" attribute="1" defaultMemberUniqueName="[Dim_Time].[Semester].[All]" allUniqueName="[Dim_Time].[Semester].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Time Id]" caption="Time Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim_Time].[Time Id].[All]" allUniqueName="[Dim_Time].[Time Id].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim_Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Dim_Time].[Year].[All]" allUniqueName="[Dim_Time].[Year].[All]" dimensionUniqueName="[Dim_Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Fact Sales" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Total Price]" caption="Total Price" measure="1" displayFolder="" measureGroup="Fact Sales" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="5">
-    <dimension name="Dim_Customer" uniqueName="[Dim_Customer]" caption="Dim_Customer"/>
-    <dimension name="Dim_Location" uniqueName="[Dim_Location]" caption="Dim_Location"/>
-    <dimension name="Dim_Product" uniqueName="[Dim_Product]" caption="Dim_Product"/>
-    <dimension name="Dim_Time" uniqueName="[Dim_Time]" caption="Dim_Time"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="Fact Sales" caption="Fact Sales"/>
-  </measureGroups>
-  <maps count="4">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BA835B94-A05C-4354-8CE8-DF90E09BB26C}" name="TablaDinámica17" cacheId="253" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Yearly Inome" fieldListSortAscending="1">
-  <location ref="A66:B72" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9A79A70-CBC7-4D7A-8AE5-6EA851228D7F}" name="TablaDinámica11" cacheId="456" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Home Owner Flag" fieldListSortAscending="1">
+  <location ref="A22:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
+      <items count="2">
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
       </items>
     </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="3">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -11260,8 +13039,17 @@
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="5" format="0" series="1">
+  <chartFormats count="2">
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -11284,7 +13072,11 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
-    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="1" level="1">
+        <member name="[Dim_Location].[Country].&amp;[United States]"/>
+      </members>
+    </pivotHierarchy>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -11303,7 +13095,7 @@
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="10"/>
+    <rowHierarchyUsage hierarchyUsage="4"/>
   </rowHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -11317,109 +13109,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9E23523-DE18-4B79-9995-EF36447D90AA}" name="TablaDinámica1" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="Education" fieldListSortAscending="1">
-  <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="9" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="28">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="2"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C0D55AD1-4BAE-4A72-831C-7CFC25F21422}" name="TablaDinámica16" cacheId="243" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Total Children" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C0D55AD1-4BAE-4A72-831C-7CFC25F21422}" name="TablaDinámica16" cacheId="424" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Total Children" fieldListSortAscending="1">
   <location ref="A57:B64" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
+  <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="6">
@@ -11431,6 +13123,7 @@
         <item x="5"/>
       </items>
     </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -11488,7 +13181,11 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
-    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="1" level="1">
+        <member name="[Dim_Location].[Country].&amp;[United States]"/>
+      </members>
+    </pivotHierarchy>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -11520,10 +13217,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{488841A8-AC45-4A4B-928C-70A2BDCF083F}" name="TablaDinámica15" cacheId="236" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Ocupation" fieldListSortAscending="1">
-  <location ref="A49:B55" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9E23523-DE18-4B79-9995-EF36447D90AA}" name="TablaDinámica1" cacheId="444" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10" rowHeaderCaption="Education" fieldListSortAscending="1">
+  <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="5">
@@ -11534,6 +13231,7 @@
         <item x="4"/>
       </items>
     </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -11565,7 +13263,7 @@
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="6" format="0" series="1">
+    <chartFormat chart="9" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -11588,7 +13286,11 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
-    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="1" level="1">
+        <member name="[Dim_Location].[Country].&amp;[United States]"/>
+      </members>
+    </pivotHierarchy>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -11607,7 +13309,7 @@
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="8"/>
+    <rowHierarchyUsage hierarchyUsage="2"/>
   </rowHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -11620,10 +13322,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06B89E08-E4B4-4293-99FF-734A5FA1DD08}" name="TablaDinámica14" cacheId="229" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Number Cars Owned" fieldListSortAscending="1">
-  <location ref="A41:B47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{488841A8-AC45-4A4B-928C-70A2BDCF083F}" name="TablaDinámica15" cacheId="428" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Ocupation" fieldListSortAscending="1">
+  <location ref="A49:B55" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="5">
@@ -11634,6 +13336,7 @@
         <item x="4"/>
       </items>
     </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -11664,8 +13367,8 @@
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="0" series="1">
+  <chartFormats count="6">
+    <chartFormat chart="6" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -11674,6 +13377,66 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="6" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotHierarchies count="28">
     <pivotHierarchy/>
@@ -11688,7 +13451,11 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
-    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="1" level="1">
+        <member name="[Dim_Location].[Country].&amp;[United States]"/>
+      </members>
+    </pivotHierarchy>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -11707,7 +13474,7 @@
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="7"/>
+    <rowHierarchyUsage hierarchyUsage="8"/>
   </rowHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -11720,10 +13487,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1809F4C8-F22A-46DD-A914-3BBE948A1C38}" name="TablaDinámica13" cacheId="222" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Number Children At Home" fieldListSortAscending="1">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1809F4C8-F22A-46DD-A914-3BBE948A1C38}" name="TablaDinámica13" cacheId="436" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Number Children At Home" fieldListSortAscending="1">
   <location ref="A32:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
+  <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="6">
@@ -11735,6 +13502,7 @@
         <item x="5"/>
       </items>
     </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -11792,7 +13560,11 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
-    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="1" level="1">
+        <member name="[Dim_Location].[Country].&amp;[United States]"/>
+      </members>
+    </pivotHierarchy>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -11824,10 +13596,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36EF7763-C6D6-4F6A-90F5-8DDFB02A36FF}" name="TablaDinámica12" cacheId="215" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="27" rowHeaderCaption="Marital Satus" fieldListSortAscending="1">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36EF7763-C6D6-4F6A-90F5-8DDFB02A36FF}" name="TablaDinámica12" cacheId="440" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="27" rowHeaderCaption="Marital Satus" fieldListSortAscending="1">
   <location ref="A27:B30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
+  <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="2">
@@ -11835,6 +13607,7 @@
         <item x="1"/>
       </items>
     </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -11898,7 +13671,11 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
-    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="1" level="1">
+        <member name="[Dim_Location].[Country].&amp;[United States]"/>
+      </members>
+    </pivotHierarchy>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -11930,107 +13707,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9A79A70-CBC7-4D7A-8AE5-6EA851228D7F}" name="TablaDinámica11" cacheId="208" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Home Owner Flag" fieldListSortAscending="1">
-  <location ref="A22:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="4" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotHierarchies count="28">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="4"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{597704B2-5323-47F0-BFA7-7A5009002071}" name="TablaDinámica3" cacheId="201" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12" rowHeaderCaption="Age" fieldListSortAscending="1">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{597704B2-5323-47F0-BFA7-7A5009002071}" name="TablaDinámica3" cacheId="452" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12" rowHeaderCaption="Age" fieldListSortAscending="1">
   <location ref="A16:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
+  <pivotFields count="4">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" hideNewItems="1" defaultSubtotal="0">
@@ -12040,6 +13720,7 @@
         <item n="Mayores a 76" c="1" x="0"/>
       </items>
     </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
   </pivotFields>
   <rowFields count="1">
     <field x="2"/>
@@ -12064,7 +13745,7 @@
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="5">
     <chartFormat chart="8" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -12083,6 +13764,42 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="11" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotHierarchies count="30">
     <pivotHierarchy/>
@@ -12097,7 +13814,11 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
-    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="1" level="1">
+        <member name="[Dim_Location].[Country].&amp;[United States]"/>
+      </members>
+    </pivotHierarchy>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -12131,27 +13852,40 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A1E32690-3684-4402-A583-BEFC5D85520F}" name="TablaDinámica2" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Gender" fieldListSortAscending="1">
-  <location ref="A10:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BA835B94-A05C-4354-8CE8-DF90E09BB26C}" name="TablaDinámica17" cacheId="420" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Yearly Inome" fieldListSortAscending="1">
+  <location ref="A66:B72" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="2">
+      <items count="5">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
       </items>
     </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="6">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -12187,7 +13921,128 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
-    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="1" level="1">
+        <member name="[Dim_Location].[Country].&amp;[United States]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="10"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A1E32690-3684-4402-A583-BEFC5D85520F}" name="TablaDinámica2" cacheId="448" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Gender" fieldListSortAscending="1">
+  <location ref="A10:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="28">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="1" level="1">
+        <member name="[Dim_Location].[Country].&amp;[United States]"/>
+      </members>
+    </pivotHierarchy>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -12217,6 +14072,426 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06B89E08-E4B4-4293-99FF-734A5FA1DD08}" name="TablaDinámica14" cacheId="432" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Number Cars Owned" fieldListSortAscending="1">
+  <location ref="A41:B47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+      </items>
+    </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="28">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1">
+      <members count="1" level="1">
+        <member name="[Dim_Location].[Country].&amp;[United States]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="7"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Country9" xr10:uid="{F11DBA7C-9D8F-4475-9ECC-281ACD7C3E1E}" sourceName="[Dim_Location].[Country]">
+  <pivotTables>
+    <pivotTable tabId="1" name="TablaDinámica17"/>
+  </pivotTables>
+  <data>
+    <olap pivotCacheId="671916395">
+      <levels count="2">
+        <level uniqueName="[Dim_Location].[Country].[(All)]" sourceCaption="(All)" count="0"/>
+        <level uniqueName="[Dim_Location].[Country].[Country]" sourceCaption="Country" count="6">
+          <ranges>
+            <range startItem="0">
+              <i n="[Dim_Location].[Country].&amp;[Australia]" c="Australia"/>
+              <i n="[Dim_Location].[Country].&amp;[Canada]" c="Canada"/>
+              <i n="[Dim_Location].[Country].&amp;[France]" c="France"/>
+              <i n="[Dim_Location].[Country].&amp;[Germany]" c="Germany"/>
+              <i n="[Dim_Location].[Country].&amp;[United Kingdom]" c="United Kingdom"/>
+              <i n="[Dim_Location].[Country].&amp;[United States]" c="United States"/>
+            </range>
+          </ranges>
+        </level>
+      </levels>
+      <selections count="1">
+        <selection n="[Dim_Location].[Country].&amp;[United States]"/>
+      </selections>
+    </olap>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache10.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Country" xr10:uid="{B0DE67BE-3E32-43FC-95FA-CD23F628F747}" sourceName="[Dim_Location].[Country]">
+  <pivotTables>
+    <pivotTable tabId="1" name="TablaDinámica1"/>
+  </pivotTables>
+  <data>
+    <olap pivotCacheId="812453292">
+      <levels count="2">
+        <level uniqueName="[Dim_Location].[Country].[(All)]" sourceCaption="(All)" count="0"/>
+        <level uniqueName="[Dim_Location].[Country].[Country]" sourceCaption="Country" count="6">
+          <ranges>
+            <range startItem="0">
+              <i n="[Dim_Location].[Country].&amp;[Australia]" c="Australia"/>
+              <i n="[Dim_Location].[Country].&amp;[Canada]" c="Canada"/>
+              <i n="[Dim_Location].[Country].&amp;[France]" c="France"/>
+              <i n="[Dim_Location].[Country].&amp;[Germany]" c="Germany"/>
+              <i n="[Dim_Location].[Country].&amp;[United Kingdom]" c="United Kingdom"/>
+              <i n="[Dim_Location].[Country].&amp;[United States]" c="United States"/>
+            </range>
+          </ranges>
+        </level>
+      </levels>
+      <selections count="1">
+        <selection n="[Dim_Location].[Country].&amp;[United States]"/>
+      </selections>
+    </olap>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Country8" xr10:uid="{06F90322-97B3-4245-9458-42BF1BC0D3BB}" sourceName="[Dim_Location].[Country]">
+  <pivotTables>
+    <pivotTable tabId="1" name="TablaDinámica16"/>
+  </pivotTables>
+  <data>
+    <olap pivotCacheId="1146292395">
+      <levels count="2">
+        <level uniqueName="[Dim_Location].[Country].[(All)]" sourceCaption="(All)" count="0"/>
+        <level uniqueName="[Dim_Location].[Country].[Country]" sourceCaption="Country" count="6">
+          <ranges>
+            <range startItem="0">
+              <i n="[Dim_Location].[Country].&amp;[Australia]" c="Australia"/>
+              <i n="[Dim_Location].[Country].&amp;[Canada]" c="Canada"/>
+              <i n="[Dim_Location].[Country].&amp;[France]" c="France"/>
+              <i n="[Dim_Location].[Country].&amp;[Germany]" c="Germany"/>
+              <i n="[Dim_Location].[Country].&amp;[United Kingdom]" c="United Kingdom"/>
+              <i n="[Dim_Location].[Country].&amp;[United States]" c="United States"/>
+            </range>
+          </ranges>
+        </level>
+      </levels>
+      <selections count="1">
+        <selection n="[Dim_Location].[Country].&amp;[United States]"/>
+      </selections>
+    </olap>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Country7" xr10:uid="{59057A27-C83E-4982-9E1F-629FDF968789}" sourceName="[Dim_Location].[Country]">
+  <pivotTables>
+    <pivotTable tabId="1" name="TablaDinámica15"/>
+  </pivotTables>
+  <data>
+    <olap pivotCacheId="1868828732">
+      <levels count="2">
+        <level uniqueName="[Dim_Location].[Country].[(All)]" sourceCaption="(All)" count="0"/>
+        <level uniqueName="[Dim_Location].[Country].[Country]" sourceCaption="Country" count="6">
+          <ranges>
+            <range startItem="0">
+              <i n="[Dim_Location].[Country].&amp;[Australia]" c="Australia"/>
+              <i n="[Dim_Location].[Country].&amp;[Canada]" c="Canada"/>
+              <i n="[Dim_Location].[Country].&amp;[France]" c="France"/>
+              <i n="[Dim_Location].[Country].&amp;[Germany]" c="Germany"/>
+              <i n="[Dim_Location].[Country].&amp;[United Kingdom]" c="United Kingdom"/>
+              <i n="[Dim_Location].[Country].&amp;[United States]" c="United States"/>
+            </range>
+          </ranges>
+        </level>
+      </levels>
+      <selections count="1">
+        <selection n="[Dim_Location].[Country].&amp;[United States]"/>
+      </selections>
+    </olap>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Country6" xr10:uid="{5E0669D9-D3D8-49B9-9A50-7719BA6776E0}" sourceName="[Dim_Location].[Country]">
+  <pivotTables>
+    <pivotTable tabId="1" name="TablaDinámica14"/>
+  </pivotTables>
+  <data>
+    <olap pivotCacheId="918552306">
+      <levels count="2">
+        <level uniqueName="[Dim_Location].[Country].[(All)]" sourceCaption="(All)" count="0"/>
+        <level uniqueName="[Dim_Location].[Country].[Country]" sourceCaption="Country" count="6">
+          <ranges>
+            <range startItem="0">
+              <i n="[Dim_Location].[Country].&amp;[Australia]" c="Australia"/>
+              <i n="[Dim_Location].[Country].&amp;[Canada]" c="Canada"/>
+              <i n="[Dim_Location].[Country].&amp;[France]" c="France"/>
+              <i n="[Dim_Location].[Country].&amp;[Germany]" c="Germany"/>
+              <i n="[Dim_Location].[Country].&amp;[United Kingdom]" c="United Kingdom"/>
+              <i n="[Dim_Location].[Country].&amp;[United States]" c="United States"/>
+            </range>
+          </ranges>
+        </level>
+      </levels>
+      <selections count="1">
+        <selection n="[Dim_Location].[Country].&amp;[United States]"/>
+      </selections>
+    </olap>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache5.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Country5" xr10:uid="{BA21771D-262E-4104-A93A-ACA55B6212D8}" sourceName="[Dim_Location].[Country]">
+  <pivotTables>
+    <pivotTable tabId="1" name="TablaDinámica13"/>
+  </pivotTables>
+  <data>
+    <olap pivotCacheId="1418512450">
+      <levels count="2">
+        <level uniqueName="[Dim_Location].[Country].[(All)]" sourceCaption="(All)" count="0"/>
+        <level uniqueName="[Dim_Location].[Country].[Country]" sourceCaption="Country" count="6">
+          <ranges>
+            <range startItem="0">
+              <i n="[Dim_Location].[Country].&amp;[Australia]" c="Australia"/>
+              <i n="[Dim_Location].[Country].&amp;[Canada]" c="Canada"/>
+              <i n="[Dim_Location].[Country].&amp;[France]" c="France"/>
+              <i n="[Dim_Location].[Country].&amp;[Germany]" c="Germany"/>
+              <i n="[Dim_Location].[Country].&amp;[United Kingdom]" c="United Kingdom"/>
+              <i n="[Dim_Location].[Country].&amp;[United States]" c="United States"/>
+            </range>
+          </ranges>
+        </level>
+      </levels>
+      <selections count="1">
+        <selection n="[Dim_Location].[Country].&amp;[United States]"/>
+      </selections>
+    </olap>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache6.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Country4" xr10:uid="{2867BEBF-3142-40F4-A446-C331E12DA46D}" sourceName="[Dim_Location].[Country]">
+  <pivotTables>
+    <pivotTable tabId="1" name="TablaDinámica12"/>
+  </pivotTables>
+  <data>
+    <olap pivotCacheId="1387085020">
+      <levels count="2">
+        <level uniqueName="[Dim_Location].[Country].[(All)]" sourceCaption="(All)" count="0"/>
+        <level uniqueName="[Dim_Location].[Country].[Country]" sourceCaption="Country" count="6">
+          <ranges>
+            <range startItem="0">
+              <i n="[Dim_Location].[Country].&amp;[Australia]" c="Australia"/>
+              <i n="[Dim_Location].[Country].&amp;[Canada]" c="Canada"/>
+              <i n="[Dim_Location].[Country].&amp;[France]" c="France"/>
+              <i n="[Dim_Location].[Country].&amp;[Germany]" c="Germany"/>
+              <i n="[Dim_Location].[Country].&amp;[United Kingdom]" c="United Kingdom"/>
+              <i n="[Dim_Location].[Country].&amp;[United States]" c="United States"/>
+            </range>
+          </ranges>
+        </level>
+      </levels>
+      <selections count="1">
+        <selection n="[Dim_Location].[Country].&amp;[United States]"/>
+      </selections>
+    </olap>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache7.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Country3" xr10:uid="{7DF30806-03D1-4AAC-9619-A21324A00EC0}" sourceName="[Dim_Location].[Country]">
+  <pivotTables>
+    <pivotTable tabId="1" name="TablaDinámica11"/>
+  </pivotTables>
+  <data>
+    <olap pivotCacheId="1353564135">
+      <levels count="2">
+        <level uniqueName="[Dim_Location].[Country].[(All)]" sourceCaption="(All)" count="0"/>
+        <level uniqueName="[Dim_Location].[Country].[Country]" sourceCaption="Country" count="6">
+          <ranges>
+            <range startItem="0">
+              <i n="[Dim_Location].[Country].&amp;[Australia]" c="Australia"/>
+              <i n="[Dim_Location].[Country].&amp;[Canada]" c="Canada"/>
+              <i n="[Dim_Location].[Country].&amp;[France]" c="France"/>
+              <i n="[Dim_Location].[Country].&amp;[Germany]" c="Germany"/>
+              <i n="[Dim_Location].[Country].&amp;[United Kingdom]" c="United Kingdom"/>
+              <i n="[Dim_Location].[Country].&amp;[United States]" c="United States"/>
+            </range>
+          </ranges>
+        </level>
+      </levels>
+      <selections count="1">
+        <selection n="[Dim_Location].[Country].&amp;[United States]"/>
+      </selections>
+    </olap>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache8.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Country2" xr10:uid="{BA368F58-1D58-48AE-80A8-443FC4DED179}" sourceName="[Dim_Location].[Country]">
+  <pivotTables>
+    <pivotTable tabId="1" name="TablaDinámica3"/>
+  </pivotTables>
+  <data>
+    <olap pivotCacheId="757080515">
+      <levels count="2">
+        <level uniqueName="[Dim_Location].[Country].[(All)]" sourceCaption="(All)" count="0"/>
+        <level uniqueName="[Dim_Location].[Country].[Country]" sourceCaption="Country" count="6">
+          <ranges>
+            <range startItem="0">
+              <i n="[Dim_Location].[Country].&amp;[Australia]" c="Australia"/>
+              <i n="[Dim_Location].[Country].&amp;[Canada]" c="Canada"/>
+              <i n="[Dim_Location].[Country].&amp;[France]" c="France"/>
+              <i n="[Dim_Location].[Country].&amp;[Germany]" c="Germany"/>
+              <i n="[Dim_Location].[Country].&amp;[United Kingdom]" c="United Kingdom"/>
+              <i n="[Dim_Location].[Country].&amp;[United States]" c="United States"/>
+            </range>
+          </ranges>
+        </level>
+      </levels>
+      <selections count="1">
+        <selection n="[Dim_Location].[Country].&amp;[United States]"/>
+      </selections>
+    </olap>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache9.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Country1" xr10:uid="{FE10B557-D372-49C7-9C7C-532472B78976}" sourceName="[Dim_Location].[Country]">
+  <pivotTables>
+    <pivotTable tabId="1" name="TablaDinámica2"/>
+  </pivotTables>
+  <data>
+    <olap pivotCacheId="318723284">
+      <levels count="2">
+        <level uniqueName="[Dim_Location].[Country].[(All)]" sourceCaption="(All)" count="0"/>
+        <level uniqueName="[Dim_Location].[Country].[Country]" sourceCaption="Country" count="6">
+          <ranges>
+            <range startItem="0">
+              <i n="[Dim_Location].[Country].&amp;[Australia]" c="Australia"/>
+              <i n="[Dim_Location].[Country].&amp;[Canada]" c="Canada"/>
+              <i n="[Dim_Location].[Country].&amp;[France]" c="France"/>
+              <i n="[Dim_Location].[Country].&amp;[Germany]" c="Germany"/>
+              <i n="[Dim_Location].[Country].&amp;[United Kingdom]" c="United Kingdom"/>
+              <i n="[Dim_Location].[Country].&amp;[United States]" c="United States"/>
+            </range>
+          </ranges>
+        </level>
+      </levels>
+      <selections count="1">
+        <selection n="[Dim_Location].[Country].&amp;[United States]"/>
+      </selections>
+    </olap>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Country 9" xr10:uid="{1F917F49-933D-4AE9-BE76-99D448EE45FF}" cache="SegmentaciónDeDatos_Country9" caption="Country" level="1" rowHeight="241300"/>
+  <slicer name="Country 8" xr10:uid="{8D59BCB5-D02E-48F2-A1A9-7390AE3B1F37}" cache="SegmentaciónDeDatos_Country8" caption="Country" level="1" rowHeight="241300"/>
+  <slicer name="Country 7" xr10:uid="{A5456305-9EC5-49D9-88D9-CECE887F9D45}" cache="SegmentaciónDeDatos_Country7" caption="Country" level="1" rowHeight="241300"/>
+  <slicer name="Country 6" xr10:uid="{A449A635-0825-44A0-B966-7FA86B8E5969}" cache="SegmentaciónDeDatos_Country6" caption="Country" level="1" rowHeight="241300"/>
+  <slicer name="Country 5" xr10:uid="{37108320-5DBA-4AA7-BDB1-43767FA52465}" cache="SegmentaciónDeDatos_Country5" caption="Country" level="1" rowHeight="241300"/>
+  <slicer name="Country 4" xr10:uid="{1FAE1747-C22E-4BF2-8586-1B1C6C06F02E}" cache="SegmentaciónDeDatos_Country4" caption="Country" level="1" rowHeight="241300"/>
+  <slicer name="Country 3" xr10:uid="{6A5873C5-43FA-47A3-844F-7A3043744BEC}" cache="SegmentaciónDeDatos_Country3" caption="Country" level="1" rowHeight="241300"/>
+  <slicer name="Country 2" xr10:uid="{4EA8D1C0-9128-42C0-88DA-91C8C454CACC}" cache="SegmentaciónDeDatos_Country2" caption="Country" level="1" rowHeight="241300"/>
+  <slicer name="Country 1" xr10:uid="{B36B6D12-030E-41DC-B64D-2721F5FAA6D9}" cache="SegmentaciónDeDatos_Country1" caption="Country" level="1" rowHeight="241300"/>
+  <slicer name="Country" xr10:uid="{5BCFBB65-55DC-46BA-BEA3-F9F8F7A57F5F}" cache="SegmentaciónDeDatos_Country" caption="Country" level="1" rowHeight="241300"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12518,15 +14793,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D9F562-8330-4C37-87B9-E5DF270912E4}">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12542,49 +14817,52 @@
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3">
-        <v>2495</v>
+      <c r="B2" s="4">
+        <v>1789</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
-        <v>2048</v>
+      <c r="B3" s="4">
+        <v>1723</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
-        <v>1889</v>
+      <c r="B4" s="4">
+        <v>1047</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>3092</v>
+      <c r="B5" s="4">
+        <v>1913</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
-        <v>794</v>
+      <c r="B6" s="4">
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3">
-        <v>10318</v>
+      <c r="B7" s="4">
+        <v>6720</v>
       </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -12598,24 +14876,24 @@
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="3">
-        <v>5113</v>
+      <c r="B11" s="4">
+        <v>3353</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="3">
-        <v>5205</v>
+      <c r="B12" s="4">
+        <v>3367</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="3">
-        <v>10318</v>
+      <c r="B13" s="4">
+        <v>6720</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -12625,38 +14903,38 @@
       <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="O16" s="4"/>
+      <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="3">
-        <v>1900</v>
+      <c r="B17" s="4">
+        <v>1149</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="3">
-        <v>6943</v>
+      <c r="B18" s="4">
+        <v>4592</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3">
-        <v>1475</v>
+      <c r="B19" s="4">
+        <v>979</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="3">
-        <v>10318</v>
+      <c r="B20" s="4">
+        <v>6720</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -12671,24 +14949,24 @@
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="3">
-        <v>2849</v>
+      <c r="B23" s="4">
+        <v>1697</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="3">
-        <v>7469</v>
+      <c r="B24" s="4">
+        <v>5023</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="3">
-        <v>10318</v>
+      <c r="B25" s="4">
+        <v>6720</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -12703,24 +14981,24 @@
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="3">
-        <v>5943</v>
+      <c r="B28" s="4">
+        <v>4063</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="3">
-        <v>4375</v>
+      <c r="B29" s="4">
+        <v>2657</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="3">
-        <v>10318</v>
+      <c r="B30" s="4">
+        <v>6720</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -12735,56 +15013,56 @@
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="3">
-        <v>6355</v>
+      <c r="B33" s="4">
+        <v>4313</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="3">
-        <v>1497</v>
+      <c r="B34" s="4">
+        <v>925</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="3">
-        <v>1054</v>
+      <c r="B35" s="4">
+        <v>671</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="3">
-        <v>688</v>
+      <c r="B36" s="4">
+        <v>487</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="3">
-        <v>511</v>
+      <c r="B37" s="4">
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="3">
-        <v>213</v>
+      <c r="B38" s="4">
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="3">
-        <v>10318</v>
+      <c r="B39" s="4">
+        <v>6720</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -12799,51 +15077,51 @@
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="3">
-        <v>2172</v>
+      <c r="B42" s="4">
+        <v>1334</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="3">
-        <v>2916</v>
+      <c r="B43" s="4">
+        <v>1832</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="3">
-        <v>3949</v>
+      <c r="B44" s="4">
+        <v>2756</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="3">
-        <v>705</v>
+      <c r="B45" s="4">
+        <v>483</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="3">
-        <v>576</v>
+      <c r="B46" s="4">
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="3">
-        <v>10318</v>
+      <c r="B47" s="4">
+        <v>6720</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>36</v>
       </c>
@@ -12851,55 +15129,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="3">
-        <v>1232</v>
+      <c r="B50" s="4">
+        <v>464</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="3">
-        <v>1853</v>
+      <c r="B51" s="4">
+        <v>1566</v>
       </c>
+      <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="3">
-        <v>1320</v>
+      <c r="B52" s="4">
+        <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="3">
-        <v>2922</v>
+      <c r="B53" s="4">
+        <v>2317</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="3">
-        <v>2991</v>
+      <c r="B54" s="4">
+        <v>2322</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="3">
-        <v>10318</v>
+      <c r="B55" s="4">
+        <v>6720</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>37</v>
       </c>
@@ -12907,60 +15186,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="3">
-        <v>2608</v>
+      <c r="B58" s="4">
+        <v>1653</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="3">
-        <v>2155</v>
+      <c r="B59" s="4">
+        <v>1316</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="3">
-        <v>1988</v>
+      <c r="B60" s="4">
+        <v>1381</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="3">
-        <v>1175</v>
+      <c r="B61" s="4">
+        <v>742</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="3">
-        <v>1463</v>
+      <c r="B62" s="4">
+        <v>1025</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="3">
-        <v>929</v>
+      <c r="B63" s="4">
+        <v>603</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="3">
-        <v>10318</v>
+      <c r="B64" s="4">
+        <v>6720</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -12975,53 +15254,60 @@
       <c r="A67" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B67" s="3">
-        <v>1438</v>
+      <c r="B67" s="4">
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B68" s="3">
-        <v>3117</v>
+      <c r="B68" s="4">
+        <v>1884</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="3">
-        <v>3642</v>
+      <c r="B69" s="4">
+        <v>3310</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B70" s="3">
-        <v>1400</v>
+      <c r="B70" s="4">
+        <v>914</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B71" s="3">
-        <v>721</v>
+      <c r="B71" s="4">
+        <v>544</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="3">
-        <v>10318</v>
+      <c r="B72" s="4">
+        <v>6720</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
   <drawing r:id="rId12"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId13"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>